--- a/exp3_Eigenvalue/result.xlsx
+++ b/exp3_Eigenvalue/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polly/Desktop/大二下/Engineering_Computation/HW/engineering-computation-practice/exp3_Eigenvalue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{946AAB02-DC26-454B-9FF1-4DE14E264783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7705D-6D50-EB47-935B-F15C9A825474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="740" windowWidth="15440" windowHeight="18900" xr2:uid="{C2DA93B0-6B14-5C48-9EAA-87246D08FBDC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C2DA93B0-6B14-5C48-9EAA-87246D08FBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -92,8 +107,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180498DB-3AAC-5940-911E-0CF616E87017}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -426,94 +448,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>5.5477183871124299E-12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.8905E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>5.47053184664576E-10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>8.8029199999999997E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>7.9282636288272892E-12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>5.4606660000000003E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.2082530329527199E-9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>2.9252499999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1.0568520203400801E-12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.154398708</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>2.0849075629694401E-9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5.6129999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>25</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3.3381352086626802E-10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0.48381033299999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>3.1982987505397602E-9</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1.0744E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>30</v>
       </c>
       <c r="B6" s="3">
@@ -530,244 +552,245 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1.4725940779090401E-6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.25031475</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>6.2010170617126699E-9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0.27967016700000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>40</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2.2947940934865701E-6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>3.2657383329999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>7.9909202937700607E-9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0.39028974999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>45</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1.5276701711870401E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>2.9532229170000002</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.0083856426541299E-8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0.465031625</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>50</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>8.9197775613303895E-4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>4.8665847080000004</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.2440578509448901E-8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2.3457577920000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>55</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>3.7745683986234301E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>4.9047244589999996</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1.4962073730324799E-8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>2.0766671670000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>60</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>4.85575119267979E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>4.3155182910000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1.77713730340859E-8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>2.8789419170000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>65</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3.0675968909716401E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>5.4925713749999998</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>2.0786343415583201E-8</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>3.59388</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>70</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3.76403088508473E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>7.0014451659999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>2.4073157809403201E-8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>4.1760685840000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>75</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>5.3952136880862499E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>8.6212190409999998</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>2.75619457306898E-8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>5.28059675</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>80</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>8.9185724611604594E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>10.376772458</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>3.1328888975362098E-8</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>6.25749625</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>85</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.100532881989757</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>15.037752707999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>3.5313119999236597E-8</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>7.428275792</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>90</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>6.2619647050422195E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>16.986242417</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>3.9527940319989502E-8</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>10.795337666</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>95</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.13982447295554301</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>32.011624625000003</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>4.3989725522766799E-8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>15.687526541</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>100</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>8.6407972886044501E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>34.118648</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>4.8647454407959997E-8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>15.474037708999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>